--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2560437.763995989</v>
+        <v>-2563052.04261244</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.65065128443977</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851262</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>232.5567683749328</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674308</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>96.06464356316536</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.1554813137018</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>245.805626701232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>88.01624809068203</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.5560329430465</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>213.6262410871905</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6883373826034</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.79925355567458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.44957429027544</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>129.3286936022441</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.9967681169583</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.8152577453147</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.0280580960835</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892437</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740348</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016452</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748044</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>97.02629574295528</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545306</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969978</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652534</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972051</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808113</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652582</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.372028646797</v>
+        <v>1333.326281913614</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.409511706386</v>
+        <v>1239.739765464685</v>
       </c>
       <c r="D2" t="n">
-        <v>856.1438130996349</v>
+        <v>1239.739765464685</v>
       </c>
       <c r="E2" t="n">
-        <v>470.3555605013907</v>
+        <v>1239.739765464685</v>
       </c>
       <c r="F2" t="n">
-        <v>59.36965571178314</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178314</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178314</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510735003</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447431</v>
+        <v>520.5745606447449</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185016</v>
+        <v>925.8512030185034</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877247</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384224</v>
+        <v>2357.627637384226</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215709</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719471</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S2" t="n">
-        <v>2968.482785589157</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2968.482785589157</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2968.482785589157</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2968.482785589157</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="W2" t="n">
-        <v>2733.57695894781</v>
+        <v>1706.792040174694</v>
       </c>
       <c r="X2" t="n">
-        <v>2360.111200686731</v>
+        <v>1333.326281913614</v>
       </c>
       <c r="Y2" t="n">
-        <v>1969.971868710919</v>
+        <v>1333.326281913614</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902746</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621619</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960367</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549119</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817968</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299306</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>483.817322604489</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178314</v>
+        <v>469.5881172744455</v>
       </c>
       <c r="J3" t="n">
-        <v>263.2196007018998</v>
+        <v>548.6079372775575</v>
       </c>
       <c r="K3" t="n">
-        <v>476.4318839038948</v>
+        <v>761.8202204795525</v>
       </c>
       <c r="L3" t="n">
-        <v>809.4446518541372</v>
+        <v>1094.832988429795</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.036801468466</v>
+        <v>1502.800049602476</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.210181722258</v>
+        <v>2175.721246887316</v>
       </c>
       <c r="O3" t="n">
-        <v>2104.259402166788</v>
+        <v>2549.770467331845</v>
       </c>
       <c r="P3" t="n">
-        <v>2385.133812092034</v>
+        <v>2830.644877257091</v>
       </c>
       <c r="Q3" t="n">
-        <v>2522.971720424101</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899344</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619124</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853245</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.593313621502</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893301</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687768</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922814</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.2255191323291</v>
+        <v>325.340832137837</v>
       </c>
       <c r="C4" t="n">
-        <v>504.2893362044222</v>
+        <v>156.4046492099301</v>
       </c>
       <c r="D4" t="n">
-        <v>354.1726967920865</v>
+        <v>156.4046492099301</v>
       </c>
       <c r="E4" t="n">
-        <v>206.2596032096935</v>
+        <v>156.4046492099301</v>
       </c>
       <c r="F4" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="G4" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945955</v>
+        <v>95.29667538945989</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778206</v>
+        <v>284.1726417778209</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386275</v>
+        <v>581.3952856386278</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945955</v>
+        <v>905.1640129945956</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
         <v>1507.614327944344</v>
@@ -4510,28 +4510,28 @@
         <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1791.210133852897</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1791.210133852897</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
-        <v>1791.210133852897</v>
+        <v>1279.080506108942</v>
       </c>
       <c r="U4" t="n">
-        <v>1791.210133852897</v>
+        <v>1279.080506108942</v>
       </c>
       <c r="V4" t="n">
-        <v>1593.073284041077</v>
+        <v>1024.396017903055</v>
       </c>
       <c r="W4" t="n">
-        <v>1303.656114004116</v>
+        <v>734.978847866094</v>
       </c>
       <c r="X4" t="n">
-        <v>1075.666563106099</v>
+        <v>506.9892969680767</v>
       </c>
       <c r="Y4" t="n">
-        <v>854.8739839625688</v>
+        <v>506.9892969680767</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>3126.409852034566</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4638,13 +4638,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.894418388452</v>
+        <v>1931.789305875497</v>
       </c>
       <c r="C7" t="n">
-        <v>652.894418388452</v>
+        <v>1762.85312294759</v>
       </c>
       <c r="D7" t="n">
-        <v>652.894418388452</v>
+        <v>1612.736483535254</v>
       </c>
       <c r="E7" t="n">
-        <v>504.9813248060589</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F7" t="n">
-        <v>358.0913773081485</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>2152.581885019027</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.894418388452</v>
+        <v>1931.789305875497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.395308462682</v>
+        <v>885.6097049312904</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>885.6097049312904</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>735.4930655189546</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>587.5799719365615</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>440.6900244386511</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.395308462682</v>
+        <v>1067.25816976153</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>594.8179559048576</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>594.8179559048576</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>446.9048623224646</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>446.9048623224645</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2319.876964645598</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2100.27549966854</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1811.200273012738</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1556.515784806851</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770321</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.3345878491252</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072718</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,13 +5604,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121639</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121639</v>
+        <v>363.7369613277356</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121639</v>
+        <v>216.8470138298252</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,19 +5689,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.7594328861248</v>
+        <v>874.8686257536382</v>
       </c>
       <c r="C22" t="n">
-        <v>390.823249958218</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.291686000759</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.607197794873</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.190027757912</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>962.2004768598947</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.4078977163645</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647279</v>
+        <v>696.7084350851669</v>
       </c>
       <c r="C25" t="n">
-        <v>631.564586536821</v>
+        <v>527.77225215726</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244853</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420922</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949676</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1344.266747951538</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150033</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942654</v>
@@ -6376,10 +6376,10 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.0944824954149</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6427,7 +6427,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6640,7 +6640,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931273</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951538</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.42938226429112</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>242.1695121525738</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>9.872575263447146</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.6222404865678</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738758</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>116.6842003424802</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>49.35640445976588</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>55.98216201012625</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.615473018213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.21102825632994</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221288292</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823405</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>176.3785887617866</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>48.39475227997597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>24.81829093851047</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.007416385313443e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1137658.272462579</v>
+        <v>1137658.27246258</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.45558071832</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26323,16 +26323,16 @@
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871473</v>
+        <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973094</v>
+        <v>95186.49343973069</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359976</v>
+        <v>22978.01038359964</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>18331.20513627363</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="J4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20987.72340992393</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.72340992389</v>
+      </c>
+      <c r="O4" t="n">
         <v>20987.7234099239</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20987.7234099239</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.72340992391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992391</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331638.228748003</v>
+        <v>-1332067.787614592</v>
       </c>
       <c r="C6" t="n">
-        <v>-274778.2886726989</v>
+        <v>-274778.2886726986</v>
       </c>
       <c r="D6" t="n">
         <v>-179591.7952329679</v>
       </c>
       <c r="E6" t="n">
-        <v>-419353.1907858426</v>
+        <v>-419387.9287112782</v>
       </c>
       <c r="F6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="G6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392309</v>
       </c>
       <c r="H6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392311</v>
       </c>
       <c r="I6" t="n">
-        <v>-93940.7289784874</v>
+        <v>-93975.46690392312</v>
       </c>
       <c r="J6" t="n">
-        <v>-317224.9404990363</v>
+        <v>-317224.9404990364</v>
       </c>
       <c r="K6" t="n">
         <v>-126603.8054008319</v>
@@ -26555,7 +26555,7 @@
         <v>-188680.822952744</v>
       </c>
       <c r="N6" t="n">
-        <v>-103625.7950172322</v>
+        <v>-103625.7950172321</v>
       </c>
       <c r="O6" t="n">
         <v>-123053.513010864</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>108.877414919451</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,10 +27673,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>239.7360103794529</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>118.4697753159817</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.08341430184666</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.438685100379</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.7972468083524</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>36.69711465678412</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720917</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.8675085250331</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
@@ -31060,16 +31060,16 @@
         <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419355</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570168</v>
       </c>
       <c r="P2" t="n">
         <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.4714913934012</v>
       </c>
       <c r="R2" t="n">
         <v>256.8006720259355</v>
@@ -31081,7 +31081,7 @@
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576733</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863085</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.309719574672</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
@@ -31136,16 +31136,16 @@
         <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004841</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.8905810265572</v>
       </c>
       <c r="O3" t="n">
         <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913464</v>
       </c>
       <c r="Q3" t="n">
         <v>279.2119845224527</v>
@@ -31209,16 +31209,16 @@
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585707</v>
+        <v>213.0532962585708</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283778</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795411</v>
+        <v>287.4552415795412</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288361</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31230,13 +31230,13 @@
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.4539595692403</v>
       </c>
       <c r="S4" t="n">
         <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.83529336788171</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,7 +33035,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34375,10 +34375,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34708,19 +34708,19 @@
         <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453446</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353301</v>
       </c>
       <c r="P2" t="n">
         <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189517</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180339</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435522</v>
+        <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
         <v>215.3659426282778</v>
@@ -34784,10 +34784,10 @@
         <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>492.5173228427568</v>
+        <v>412.0879405784657</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>679.7183810957978</v>
       </c>
       <c r="O3" t="n">
         <v>377.8274953985149</v>
@@ -34799,7 +34799,7 @@
         <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634014</v>
       </c>
       <c r="K4" t="n">
         <v>190.7838044326879</v>
@@ -34863,19 +34863,19 @@
         <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413818</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080647</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868046</v>
+        <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
